--- a/myapp/DER TERHADAP HARGA SAHAM, PLSSEM SMARTPLS.xlsx
+++ b/myapp/DER TERHADAP HARGA SAHAM, PLSSEM SMARTPLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\PRANAUGI.COM\PENELUSURAN LITERATUR\BIDANG KEUANGAN\DER TERHADAP HARGA SAHAM, SMARTPLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF8C7C-E64E-4701-9F53-B74967F5443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5AC03-1123-416B-9C7D-827BB4E2954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Sinta</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>Ada Gambar Kerangka Penelitian?</t>
+  </si>
+  <si>
+    <t>Indonesian Journal of Innovation Multidisipliner Research</t>
+  </si>
+  <si>
+    <t>Pengaruh ROE, EPS, DER Terhadap Harga Saham Farmasi dengan Inflasi Sebagai Moderasi</t>
+  </si>
+  <si>
+    <t>Mutiara Kusuma Wardhani, Ida Ayu Sri Brahmayanti, Ahmad Halik</t>
+  </si>
+  <si>
+    <t>https://multidisipliner.org/ijim/article/view/180</t>
+  </si>
+  <si>
+    <t>ROE, EPS, DER</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>Ada, Inflasi</t>
+  </si>
+  <si>
+    <t>Fornell-Larcker</t>
+  </si>
+  <si>
+    <t>Hasil Pada Tabel 5 Tidak Ada yang Berpengaruh Signifikan</t>
   </si>
 </sst>
 </file>
@@ -495,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,8 +721,88 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M3" s="3"/>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M4" s="3"/>
@@ -765,6 +872,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{CED43E6D-F08D-472A-8D28-615700107667}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{56F0DB75-996B-4CF6-9CBA-FE2E149EAA0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
